--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.008099333333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.024298</v>
+      </c>
+      <c r="I2">
+        <v>0.03427653281966027</v>
+      </c>
+      <c r="J2">
+        <v>0.05054848581301346</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.06417100000000001</v>
-      </c>
-      <c r="H2">
-        <v>0.128342</v>
-      </c>
-      <c r="I2">
-        <v>0.3707399083708381</v>
-      </c>
-      <c r="J2">
-        <v>0.2820108284845396</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N2">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q2">
-        <v>0.0258651162005</v>
+        <v>0.0007463535666666667</v>
       </c>
       <c r="R2">
-        <v>0.103460464802</v>
+        <v>0.0044781214</v>
       </c>
       <c r="S2">
-        <v>0.003937966587511043</v>
+        <v>0.0003509684427032668</v>
       </c>
       <c r="T2">
-        <v>0.002981724170049027</v>
+        <v>0.0005145226736296903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H3">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I3">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J3">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +620,22 @@
         <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q3">
-        <v>0.006868200739666668</v>
+        <v>0.0008668689468888889</v>
       </c>
       <c r="R3">
-        <v>0.041209204438</v>
+        <v>0.007801820522000001</v>
       </c>
       <c r="S3">
-        <v>0.001045684265226812</v>
+        <v>0.0004076401023662481</v>
       </c>
       <c r="T3">
-        <v>0.001187646712552764</v>
+        <v>0.0008964057013189564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H4">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I4">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J4">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N4">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P4">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q4">
-        <v>2.3867156286615</v>
+        <v>0.07127769704</v>
       </c>
       <c r="R4">
-        <v>9.546862514646001</v>
+        <v>0.42766618224</v>
       </c>
       <c r="S4">
-        <v>0.3633776986232025</v>
+        <v>0.03351792427459076</v>
       </c>
       <c r="T4">
-        <v>0.2751399847519798</v>
+        <v>0.04913755743806481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,60 +720,60 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.06417100000000001</v>
+        <v>0.2281945</v>
       </c>
       <c r="H5">
-        <v>0.128342</v>
+        <v>0.456389</v>
       </c>
       <c r="I5">
-        <v>0.3707399083708381</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J5">
-        <v>0.2820108284845396</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1809256666666667</v>
+        <v>0.09215</v>
       </c>
       <c r="N5">
-        <v>0.5427770000000001</v>
+        <v>0.1843</v>
       </c>
       <c r="O5">
-        <v>0.004767901157396439</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P5">
-        <v>0.0071189754494588</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q5">
-        <v>0.01161018095566667</v>
+        <v>0.021028123175</v>
       </c>
       <c r="R5">
-        <v>0.06966108573400001</v>
+        <v>0.0841124927</v>
       </c>
       <c r="S5">
-        <v>0.001767651238214369</v>
+        <v>0.009888353152331546</v>
       </c>
       <c r="T5">
-        <v>0.002007628164462974</v>
+        <v>0.009664272306164325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +782,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.06417100000000001</v>
+        <v>0.2281945</v>
       </c>
       <c r="H6">
-        <v>0.128342</v>
+        <v>0.456389</v>
       </c>
       <c r="I6">
-        <v>0.3707399083708381</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J6">
-        <v>0.2820108284845396</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06252866666666666</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N6">
-        <v>0.187586</v>
+        <v>0.321089</v>
       </c>
       <c r="O6">
-        <v>0.001647806569754003</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P6">
-        <v>0.002460347672547249</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q6">
-        <v>0.004012527068666667</v>
+        <v>0.02442358127016667</v>
       </c>
       <c r="R6">
-        <v>0.024075162412</v>
+        <v>0.146541487621</v>
       </c>
       <c r="S6">
-        <v>0.0006109076566834641</v>
+        <v>0.01148504765899434</v>
       </c>
       <c r="T6">
-        <v>0.0006938446854950584</v>
+        <v>0.01683717596589255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H7">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I7">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J7">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,586 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4030655</v>
+        <v>8.80044</v>
       </c>
       <c r="N7">
-        <v>0.8061309999999999</v>
+        <v>17.60088</v>
       </c>
       <c r="O7">
-        <v>0.01062191174620465</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P7">
-        <v>0.01057308397011603</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q7">
-        <v>0.003264561839666667</v>
+        <v>2.00821200558</v>
       </c>
       <c r="R7">
-        <v>0.019587371038</v>
+        <v>8.03284802232</v>
       </c>
       <c r="S7">
-        <v>0.0004970298740518475</v>
+        <v>0.944350066369014</v>
       </c>
       <c r="T7">
-        <v>0.0005645068168164066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.008099333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.024298</v>
-      </c>
-      <c r="I8">
-        <v>0.04679288304475347</v>
-      </c>
-      <c r="J8">
-        <v>0.05339093290206901</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.1070296666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.321089</v>
-      </c>
-      <c r="O8">
-        <v>0.002820533321653764</v>
-      </c>
-      <c r="P8">
-        <v>0.004211351453895939</v>
-      </c>
-      <c r="Q8">
-        <v>0.0008668689468888889</v>
-      </c>
-      <c r="R8">
-        <v>0.007801820522000001</v>
-      </c>
-      <c r="S8">
-        <v>0.0001319808858439746</v>
-      </c>
-      <c r="T8">
-        <v>0.0002248479829019889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.008099333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.024298</v>
-      </c>
-      <c r="I9">
-        <v>0.04679288304475347</v>
-      </c>
-      <c r="J9">
-        <v>0.05339093290206901</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>37.1930565</v>
-      </c>
-      <c r="N9">
-        <v>74.38611300000001</v>
-      </c>
-      <c r="O9">
-        <v>0.9801418472049912</v>
-      </c>
-      <c r="P9">
-        <v>0.9756362414539821</v>
-      </c>
-      <c r="Q9">
-        <v>0.301238962279</v>
-      </c>
-      <c r="R9">
-        <v>1.807433773674</v>
-      </c>
-      <c r="S9">
-        <v>0.04586366282353178</v>
-      </c>
-      <c r="T9">
-        <v>0.05209012910429636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.008099333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.024298</v>
-      </c>
-      <c r="I10">
-        <v>0.04679288304475347</v>
-      </c>
-      <c r="J10">
-        <v>0.05339093290206901</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P10">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q10">
-        <v>0.001465377282888889</v>
-      </c>
-      <c r="R10">
-        <v>0.013188395546</v>
-      </c>
-      <c r="S10">
-        <v>0.0002231038412269963</v>
-      </c>
-      <c r="T10">
-        <v>0.0003800887405535314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.008099333333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.024298</v>
-      </c>
-      <c r="I11">
-        <v>0.04679288304475347</v>
-      </c>
-      <c r="J11">
-        <v>0.05339093290206901</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.187586</v>
-      </c>
-      <c r="O11">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P11">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q11">
-        <v>0.0005064405142222222</v>
-      </c>
-      <c r="R11">
-        <v>0.004557964628</v>
-      </c>
-      <c r="S11">
-        <v>7.710562009887546E-05</v>
-      </c>
-      <c r="T11">
-        <v>0.0001313602575007318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.302456</v>
-      </c>
-      <c r="I12">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J12">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.4030655</v>
-      </c>
-      <c r="N12">
-        <v>0.8061309999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.01062191174620465</v>
-      </c>
-      <c r="P12">
-        <v>0.01057308397011603</v>
-      </c>
-      <c r="Q12">
-        <v>0.04063652628933333</v>
-      </c>
-      <c r="R12">
-        <v>0.243819157736</v>
-      </c>
-      <c r="S12">
-        <v>0.006186915284641764</v>
-      </c>
-      <c r="T12">
-        <v>0.0070268529832506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.302456</v>
-      </c>
-      <c r="I13">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J13">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.1070296666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.321089</v>
-      </c>
-      <c r="O13">
-        <v>0.002820533321653764</v>
-      </c>
-      <c r="P13">
-        <v>0.004211351453895939</v>
-      </c>
-      <c r="Q13">
-        <v>0.01079058828711111</v>
-      </c>
-      <c r="R13">
-        <v>0.09711529458400001</v>
-      </c>
-      <c r="S13">
-        <v>0.001642868170582978</v>
-      </c>
-      <c r="T13">
-        <v>0.002798856758441187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.302456</v>
-      </c>
-      <c r="I14">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J14">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>37.1930565</v>
-      </c>
-      <c r="N14">
-        <v>74.38611300000001</v>
-      </c>
-      <c r="O14">
-        <v>0.9801418472049912</v>
-      </c>
-      <c r="P14">
-        <v>0.9756362414539821</v>
-      </c>
-      <c r="Q14">
-        <v>3.749754365588001</v>
-      </c>
-      <c r="R14">
-        <v>22.498526193528</v>
-      </c>
-      <c r="S14">
-        <v>0.570900485758257</v>
-      </c>
-      <c r="T14">
-        <v>0.648406127597706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.302456</v>
-      </c>
-      <c r="I15">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J15">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P15">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q15">
-        <v>0.01824068447911111</v>
-      </c>
-      <c r="R15">
-        <v>0.164166160312</v>
-      </c>
-      <c r="S15">
-        <v>0.002777146077955075</v>
-      </c>
-      <c r="T15">
-        <v>0.004731258544442295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.302456</v>
-      </c>
-      <c r="I16">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J16">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.187586</v>
-      </c>
-      <c r="O16">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P16">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q16">
-        <v>0.006304056801777778</v>
-      </c>
-      <c r="R16">
-        <v>0.056736511216</v>
-      </c>
-      <c r="S16">
-        <v>0.0009597932929716634</v>
-      </c>
-      <c r="T16">
-        <v>0.001635142729551459</v>
+        <v>0.9229500659149297</v>
       </c>
     </row>
   </sheetData>
